--- a/OpenMRS_DDT/Main.rvl.xlsx
+++ b/OpenMRS_DDT/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="71">
   <si>
     <t>Flow</t>
   </si>
@@ -208,6 +208,24 @@
   </si>
   <si>
     <t>%WORKDIR%\RegisterPatient\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>DoPlayTest</t>
+  </si>
+  <si>
+    <t>pathToTest</t>
+  </si>
+  <si>
+    <t>%WORKDIR%\DataOrigin\DataOrigin.sstest</t>
+  </si>
+  <si>
+    <t>%WORKDIR%\DataSources\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>%WORKDIR%\DataOrigin\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>%WORKDIR%\DataOutput\Main.rvl.xlsx</t>
   </si>
 </sst>
 </file>
@@ -857,33 +875,71 @@
       <c r="H6" s="56"/>
     </row>
     <row r="7">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63"/>
+      <c r="A7" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>68</v>
+      </c>
       <c r="H7" s="64"/>
     </row>
     <row r="8">
       <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="B8" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>69</v>
+      </c>
       <c r="H8" s="72"/>
     </row>
     <row r="9">
       <c r="A9" s="73"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
+      <c r="B9" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="79" t="s">
+        <v>70</v>
+      </c>
       <c r="H9" s="80"/>
     </row>
     <row r="10">

--- a/OpenMRS_DDT/Main.rvl.xlsx
+++ b/OpenMRS_DDT/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="77">
   <si>
     <t>Flow</t>
   </si>
@@ -226,6 +226,24 @@
   </si>
   <si>
     <t>%WORKDIR%\DataOutput\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>sstestPath</t>
+  </si>
+  <si>
+    <t>%WORKDIR%\DefaultLogins\DefaultLogins.sstest</t>
+  </si>
+  <si>
+    <t>%WORKDIR%\CheckDashboardTiles\CheckDashboardTiles.sstest</t>
+  </si>
+  <si>
+    <t>%WORKDIR%\RegisterPatient\RegisterPatient.sstest</t>
+  </si>
+  <si>
+    <t>%WORKDIR%\DataSources\DataSources.sstest</t>
+  </si>
+  <si>
+    <t>%WORKDIR%\DataOutput\DataOutput.sstest</t>
   </si>
 </sst>
 </file>
@@ -246,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="241">
+  <borders count="250">
     <border>
       <left/>
       <right/>
@@ -494,11 +512,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -740,6 +767,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="238" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="239" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="240" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="241" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="242" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="243" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="244" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="245" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="246" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="247" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="248" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="249" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.86328125" customWidth="true"/>
@@ -807,16 +843,16 @@
         <v>58</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H3" s="32"/>
     </row>
@@ -829,16 +865,16 @@
         <v>58</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H4" s="40"/>
     </row>
@@ -851,241 +887,231 @@
         <v>58</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H5" s="48"/>
     </row>
     <row r="6">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
+      <c r="A6" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="64"/>
     </row>
     <row r="7">
-      <c r="A7" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="58" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="62" t="s">
+      <c r="D7" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="64"/>
+      <c r="G7" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="72"/>
     </row>
     <row r="8">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="70" t="s">
+      <c r="D8" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="72"/>
+      <c r="G8" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="80"/>
     </row>
     <row r="9">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="80"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
     </row>
     <row r="10">
-      <c r="A10" s="81"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="96"/>
     </row>
     <row r="11">
-      <c r="A11" s="89"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="96"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
     </row>
     <row r="12">
-      <c r="A12" s="97"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="112"/>
     </row>
     <row r="13">
-      <c r="A13" s="105"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="120"/>
     </row>
     <row r="14">
-      <c r="A14" s="113"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="128"/>
     </row>
     <row r="15">
-      <c r="A15" s="121"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="128"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="136"/>
     </row>
     <row r="16">
-      <c r="A16" s="129"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="136"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="144"/>
     </row>
     <row r="17">
-      <c r="A17" s="137"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="144"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="152"/>
     </row>
     <row r="18">
-      <c r="A18" s="145"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="152"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="160"/>
     </row>
     <row r="19">
-      <c r="A19" s="153"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="160"/>
+      <c r="A19" s="226"/>
     </row>
     <row r="20">
-      <c r="A20" s="226"/>
+      <c r="A20" s="227"/>
     </row>
     <row r="21">
-      <c r="A21" s="227"/>
+      <c r="A21" s="228"/>
     </row>
     <row r="22">
-      <c r="A22" s="228"/>
+      <c r="A22" s="229"/>
     </row>
     <row r="23">
-      <c r="A23" s="229"/>
+      <c r="A23" s="230"/>
     </row>
     <row r="24">
-      <c r="A24" s="230"/>
+      <c r="A24" s="231"/>
     </row>
     <row r="25">
-      <c r="A25" s="231"/>
+      <c r="A25" s="232"/>
     </row>
     <row r="26">
-      <c r="A26" s="232"/>
+      <c r="A26" s="233"/>
     </row>
     <row r="27">
-      <c r="A27" s="233"/>
+      <c r="A27" s="234"/>
     </row>
     <row r="28">
-      <c r="A28" s="234"/>
+      <c r="A28" s="235"/>
     </row>
     <row r="29">
-      <c r="A29" s="235"/>
+      <c r="A29" s="236"/>
     </row>
     <row r="30">
-      <c r="A30" s="236"/>
+      <c r="A30" s="237"/>
     </row>
     <row r="31">
-      <c r="A31" s="237"/>
+      <c r="A31" s="238"/>
     </row>
     <row r="32">
-      <c r="A32" s="238"/>
+      <c r="A32" s="239"/>
     </row>
     <row r="33">
-      <c r="A33" s="239"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="240"/>
+      <c r="A33" s="240"/>
     </row>
   </sheetData>
 </worksheet>

--- a/OpenMRS_DDT/Main.rvl.xlsx
+++ b/OpenMRS_DDT/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="83">
   <si>
     <t>Flow</t>
   </si>
@@ -244,6 +244,24 @@
   </si>
   <si>
     <t>%WORKDIR%\DataOutput\DataOutput.sstest</t>
+  </si>
+  <si>
+    <t>%WORKDIR%\TC_DefaultLogins\TC_DefaultLogins.sstest</t>
+  </si>
+  <si>
+    <t>%WORKDIR%\TC_CheckDashboardTiles\TC_CheckDashboardTiles.sstest</t>
+  </si>
+  <si>
+    <t>%WORKDIR%\TC_RegisterPatient\TC_RegisterPatient.sstest</t>
+  </si>
+  <si>
+    <t>%WORKDIR%\TC_DataSources\TC_DataSources.sstest</t>
+  </si>
+  <si>
+    <t>%WORKDIR%\TC_DataOrigin\TC_DataOrigin.sstest</t>
+  </si>
+  <si>
+    <t>%WORKDIR%\TC_DataOutput\TC_DataOutput.sstest</t>
   </si>
 </sst>
 </file>
@@ -852,7 +870,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H3" s="32"/>
     </row>
@@ -874,7 +892,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H4" s="40"/>
     </row>
@@ -896,7 +914,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H5" s="48"/>
     </row>
@@ -920,7 +938,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H6" s="64"/>
     </row>
@@ -942,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H7" s="72"/>
     </row>
@@ -964,7 +982,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H8" s="80"/>
     </row>
